--- a/核算损失.xlsx
+++ b/核算损失.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guhhhhaa/Documents/GitHub/antbot-binance-weiquan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999975D6-7ECC-6140-8703-860B2DA1AEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CDD1E3-1645-7F4F-BBEF-2CDA9FAAD15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{C6B16841-51FF-5B47-9BB5-4AA0BA5CEDD7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13880" xr2:uid="{C6B16841-51FF-5B47-9BB5-4AA0BA5CEDD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -340,8 +340,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="183" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="185" formatCode="#,##0.00000000"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="#,##0.00000000"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -491,7 +491,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -504,7 +504,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -519,35 +519,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -874,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DAE467D-A1E5-0140-A143-50D599353B0C}">
   <dimension ref="A1:X74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="108" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -900,10 +894,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="34">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="17" t="s">
         <v>80</v>
       </c>
     </row>
@@ -932,7 +926,7 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="18" t="s">
         <v>81</v>
       </c>
     </row>
@@ -961,7 +955,7 @@
       <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="18" t="s">
         <v>82</v>
       </c>
     </row>
@@ -990,11 +984,11 @@
       <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="4">
@@ -1326,10 +1320,10 @@
       <c r="H14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J14" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="K14" s="19"/>
+      <c r="K14" s="17"/>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="4">
@@ -1392,7 +1386,7 @@
         <v>49</v>
       </c>
       <c r="K16" s="11">
-        <f>-SUMIF(H3:H18,"BNB",G3:G18)</f>
+        <f>-SUMIF($H$3:$H$18,"BNB",$G$3:$G$18)</f>
         <v>-1.0727899999999999E-3</v>
       </c>
     </row>
@@ -1425,7 +1419,7 @@
         <v>54</v>
       </c>
       <c r="K17" s="11">
-        <f>-SUMIF(H3:H18,"USDT",G3:G18)</f>
+        <f>-SUMIF($H$3:$H$18,"USDT",$G$3:$G$18)</f>
         <v>-7.426480810000001</v>
       </c>
     </row>
@@ -1454,13 +1448,13 @@
       <c r="H18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="K18" s="19"/>
+      <c r="K18" s="17"/>
     </row>
     <row r="19" spans="1:11" ht="23">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="19" t="s">
         <v>84</v>
       </c>
       <c r="J19" s="6" t="s">
@@ -1490,19 +1484,19 @@
         <v>54</v>
       </c>
       <c r="K20" s="11">
-        <f>SUM(F3:F18)</f>
+        <f>SUM($F$3:$F$18)</f>
         <v>8013.0785478999987</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="34">
       <c r="A21" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="10">
-        <v>-389.12007477999998</v>
+        <v>8005.6</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>9</v>
@@ -1510,23 +1504,23 @@
       <c r="E21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="19" t="s">
+      <c r="J21" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="K21" s="19"/>
+      <c r="K21" s="17"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="10">
-        <v>-0.06</v>
+        <v>58.5</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>20</v>
@@ -1540,16 +1534,16 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="3" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="10">
-        <v>-0.09</v>
+        <v>20</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>20</v>
@@ -1558,22 +1552,22 @@
         <v>9</v>
       </c>
       <c r="K23" s="15">
-        <f>-(C35+C36)</f>
+        <f>-(C21+C22)</f>
         <v>-8064.1</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="10">
-        <v>-4.6500000000000004</v>
+        <v>7.5</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>20</v>
@@ -1582,22 +1576,22 @@
         <v>10</v>
       </c>
       <c r="K24" s="15">
-        <f>-C37</f>
+        <f>-C23</f>
         <v>-20</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="10">
-        <v>1.1663E-4</v>
+        <v>0.8</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>20</v>
@@ -1606,58 +1600,58 @@
         <v>23</v>
       </c>
       <c r="K25" s="15">
-        <f>-C38</f>
+        <f>-C24</f>
         <v>-7.5</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="10">
-        <v>-0.26300467</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>20</v>
+    <row r="26" spans="1:11" ht="23">
+      <c r="A26" s="19" t="s">
+        <v>85</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="K26" s="15">
-        <f>-C39</f>
+        <f>-C25</f>
         <v>-0.8</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="34">
-      <c r="A27" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="J27" s="19" t="s">
+      <c r="A27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="K27" s="19"/>
+      <c r="K27" s="17"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>29</v>
+      <c r="A28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="3">
+        <v>4313.7654387499997</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="J28" s="9" t="s">
         <v>57</v>
@@ -1674,10 +1668,10 @@
         <v>32</v>
       </c>
       <c r="C29" s="3">
-        <v>4313.7654387499997</v>
+        <v>-2.3757853799999999</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>20</v>
@@ -1686,22 +1680,22 @@
         <v>9</v>
       </c>
       <c r="K29" s="15">
-        <f>-SUMIF(D21:D26,"USDT",C21:C26)</f>
+        <f>-SUMIF(D34:D39,"USDT",C34:C39)</f>
         <v>389.12007477999998</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="3">
-        <v>-2.3757853799999999</v>
+        <v>274.88775515999998</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>20</v>
@@ -1710,7 +1704,7 @@
         <v>10</v>
       </c>
       <c r="K30" s="15">
-        <f>-SUMIF(D21:D26,"BNB",C21:C26)</f>
+        <f>-SUMIF(D34:D39,"BNB",C34:C39)</f>
         <v>4.71</v>
       </c>
     </row>
@@ -1722,10 +1716,10 @@
         <v>32</v>
       </c>
       <c r="C31" s="3">
-        <v>274.88775515999998</v>
+        <v>-0.81476583999999996</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>20</v>
@@ -1734,58 +1728,58 @@
         <v>23</v>
       </c>
       <c r="K31" s="15">
-        <f>-SUMIF(D21:D26,"ETH",C21:C26)</f>
+        <f>-SUMIF(D34:D39,"ETH",C34:C39)</f>
         <v>8.988336999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="3">
-        <v>-0.81476583999999996</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>20</v>
+    <row r="32" spans="1:11" ht="23">
+      <c r="A32" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>25</v>
       </c>
       <c r="K32" s="15">
-        <f>-SUMIF(D21:D26,"BTC",C21:C26)</f>
+        <f>-SUMIF(D34:D39,"BTC",C34:C39)</f>
         <v>0.26300467</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="34">
-      <c r="A33" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="J33" s="19" t="s">
+      <c r="A33" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="K33" s="19"/>
+      <c r="K33" s="17"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>29</v>
+      <c r="A34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="10">
+        <v>-389.12007477999998</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="J34" s="6" t="s">
         <v>62</v>
@@ -1796,16 +1790,16 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="3" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C35" s="10">
-        <v>8005.6</v>
+        <v>-0.06</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>20</v>
@@ -1814,22 +1808,22 @@
         <v>54</v>
       </c>
       <c r="K35" s="11">
-        <f>K17+K20+K23+K29</f>
+        <f>SUM(K17,K20,K23,K29)</f>
         <v>330.67214186999865</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C36" s="10">
-        <v>58.5</v>
+        <v>-0.09</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>20</v>
@@ -1844,13 +1838,13 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C37" s="10">
-        <v>20</v>
+        <v>-4.6500000000000004</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>10</v>
@@ -1868,13 +1862,13 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="10">
-        <v>7.5</v>
+        <v>1.1663E-4</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>23</v>
@@ -1892,13 +1886,13 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="3" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C39" s="10">
-        <v>0.8</v>
+        <v>-0.26300467</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>25</v>
@@ -1951,10 +1945,10 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="34">
-      <c r="J44" s="19" t="s">
+      <c r="J44" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="K44" s="19"/>
+      <c r="K44" s="17"/>
     </row>
     <row r="45" spans="1:11">
       <c r="J45" s="9" t="s">
@@ -1969,7 +1963,7 @@
         <v>9</v>
       </c>
       <c r="K46" s="15">
-        <f>C29</f>
+        <f>C28</f>
         <v>4313.7654387499997</v>
       </c>
     </row>
@@ -1978,7 +1972,7 @@
         <v>23</v>
       </c>
       <c r="K47" s="15">
-        <f>C30</f>
+        <f>C29</f>
         <v>-2.3757853799999999</v>
       </c>
     </row>
@@ -1987,7 +1981,7 @@
         <v>9</v>
       </c>
       <c r="K48" s="15">
-        <f>C31</f>
+        <f>C30</f>
         <v>274.88775515999998</v>
       </c>
     </row>
@@ -1996,15 +1990,15 @@
         <v>10</v>
       </c>
       <c r="K49" s="15">
-        <f>C32</f>
+        <f>C31</f>
         <v>-0.81476583999999996</v>
       </c>
     </row>
     <row r="50" spans="10:15" ht="34">
-      <c r="J50" s="19" t="s">
+      <c r="J50" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="K50" s="19"/>
+      <c r="K50" s="17"/>
     </row>
     <row r="51" spans="10:15">
       <c r="J51" t="s">
@@ -2019,7 +2013,7 @@
         <v>50</v>
       </c>
       <c r="K52" s="11">
-        <f>-(K35/(C29+C31))*C30</f>
+        <f>-(K35/(C28+C30))*C29</f>
         <v>0.17120623569257198</v>
       </c>
     </row>
@@ -2028,16 +2022,16 @@
         <v>49</v>
       </c>
       <c r="K53" s="11">
-        <f>-(K35/(C29+C31))*C32</f>
+        <f>-(K35/(C28+C30))*C31</f>
         <v>5.8714475478966202E-2</v>
       </c>
     </row>
     <row r="54" spans="10:15" ht="34">
-      <c r="J54" s="19" t="s">
+      <c r="J54" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
     </row>
     <row r="55" spans="10:15">
       <c r="J55" s="6" t="s">
@@ -2120,26 +2114,26 @@
       </c>
     </row>
     <row r="64" spans="10:15" ht="34">
-      <c r="J64" s="19" t="s">
+      <c r="J64" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="K64" s="19"/>
-      <c r="L64" s="19"/>
-      <c r="M64" s="19"/>
-      <c r="N64" s="19"/>
-      <c r="O64" s="19"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
     </row>
     <row r="65" spans="10:15">
       <c r="J65" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="K65" s="16" t="s">
+      <c r="K65" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="L65" s="16" t="s">
+      <c r="L65" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="M65" s="16" t="s">
+      <c r="M65" s="6" t="s">
         <v>65</v>
       </c>
       <c r="N65" s="6" t="s">
@@ -2154,19 +2148,19 @@
         <v>25</v>
       </c>
       <c r="K66" s="11">
-        <f>$K56*$O66/$O$66</f>
+        <f t="shared" ref="K66:K73" si="0">$K56*$O66/$O$66</f>
         <v>0.54071533000000005</v>
       </c>
       <c r="L66" s="11">
-        <f>$K56*$O66/$O$67</f>
+        <f t="shared" ref="L66:L73" si="1">$K56*$O66/$O$67</f>
         <v>8.5244454225970738</v>
       </c>
       <c r="M66" s="11">
-        <f>$K56*$O66/$O$68</f>
+        <f t="shared" ref="M66:M73" si="2">$K56*$O66/$O$68</f>
         <v>44.427047529279456</v>
       </c>
       <c r="N66" s="11">
-        <f>$K56*$O66</f>
+        <f t="shared" ref="N66:N73" si="3">$K56*$O66</f>
         <v>15007.456655390601</v>
       </c>
       <c r="O66" s="15">
@@ -2179,19 +2173,19 @@
         <v>23</v>
       </c>
       <c r="K67" s="11">
-        <f>$K57*$O67/$O$66</f>
+        <f t="shared" si="0"/>
         <v>0.4621219199903337</v>
       </c>
       <c r="L67" s="11">
-        <f>$K57*$O67/$O$67</f>
+        <f t="shared" si="1"/>
         <v>7.2854103943074282</v>
       </c>
       <c r="M67" s="11">
-        <f>$K57*$O67/$O$68</f>
+        <f t="shared" si="2"/>
         <v>37.969540282374517</v>
       </c>
       <c r="N67" s="11">
-        <f>$K57*$O67</f>
+        <f t="shared" si="3"/>
         <v>12826.110707386113</v>
       </c>
       <c r="O67" s="15">
@@ -2204,19 +2198,19 @@
         <v>10</v>
       </c>
       <c r="K68" s="11">
-        <f>$K58*$O68/$O$66</f>
+        <f t="shared" si="0"/>
         <v>0.18585337749065586</v>
       </c>
       <c r="L68" s="11">
-        <f>$K58*$O68/$O$67</f>
+        <f t="shared" si="1"/>
         <v>2.9300019531986035</v>
       </c>
       <c r="M68" s="11">
-        <f>$K58*$O68/$O$68</f>
+        <f t="shared" si="2"/>
         <v>15.270358314521033</v>
       </c>
       <c r="N68" s="11">
-        <f>$K58*$O68</f>
+        <f t="shared" si="3"/>
         <v>5158.327038645205</v>
       </c>
       <c r="O68" s="15">
@@ -2229,19 +2223,19 @@
         <v>47</v>
       </c>
       <c r="K69" s="11">
-        <f>$K59*$O69/$O$66</f>
+        <f t="shared" si="0"/>
         <v>6.2516851847715091E-2</v>
       </c>
       <c r="L69" s="11">
-        <f>$K59*$O69/$O$67</f>
+        <f t="shared" si="1"/>
         <v>0.98558605980051339</v>
       </c>
       <c r="M69" s="11">
-        <f>$K59*$O69/$O$68</f>
+        <f t="shared" si="2"/>
         <v>5.1366014505624626</v>
       </c>
       <c r="N69" s="11">
-        <f>$K59*$O69</f>
+        <f t="shared" si="3"/>
         <v>1735.1439699999999</v>
       </c>
       <c r="O69" s="15">
@@ -2254,19 +2248,19 @@
         <v>45</v>
       </c>
       <c r="K70" s="11">
-        <f>$K60*$O70/$O$66</f>
+        <f t="shared" si="0"/>
         <v>6.6185389060350611E-2</v>
       </c>
       <c r="L70" s="11">
-        <f>$K60*$O70/$O$67</f>
+        <f t="shared" si="1"/>
         <v>1.043421011973735</v>
       </c>
       <c r="M70" s="11">
-        <f>$K60*$O70/$O$68</f>
+        <f t="shared" si="2"/>
         <v>5.4380211959739491</v>
       </c>
       <c r="N70" s="11">
-        <f>$K60*$O70</f>
+        <f t="shared" si="3"/>
         <v>1836.9635600000001</v>
       </c>
       <c r="O70" s="15">
@@ -2279,19 +2273,19 @@
         <v>43</v>
       </c>
       <c r="K71" s="11">
-        <f>$K61*$O71/$O$66</f>
+        <f t="shared" si="0"/>
         <v>5.9642433638553594E-2</v>
       </c>
       <c r="L71" s="11">
-        <f>$K61*$O71/$O$67</f>
+        <f t="shared" si="1"/>
         <v>0.94027049394497075</v>
       </c>
       <c r="M71" s="11">
-        <f>$K61*$O71/$O$68</f>
+        <f t="shared" si="2"/>
         <v>4.9004292776791001</v>
       </c>
       <c r="N71" s="11">
-        <f>$K61*$O71</f>
+        <f t="shared" si="3"/>
         <v>1655.36501</v>
       </c>
       <c r="O71" s="15">
@@ -2304,19 +2298,19 @@
         <v>41</v>
       </c>
       <c r="K72" s="11">
-        <f>$K62*$O72/$O$66</f>
+        <f t="shared" si="0"/>
         <v>4.8711946249336148E-2</v>
       </c>
       <c r="L72" s="11">
-        <f>$K62*$O72/$O$67</f>
+        <f t="shared" si="1"/>
         <v>0.76794998068752407</v>
       </c>
       <c r="M72" s="11">
-        <f>$K62*$O72/$O$68</f>
+        <f t="shared" si="2"/>
         <v>4.0023425103611601</v>
       </c>
       <c r="N72" s="11">
-        <f>$K62*$O72</f>
+        <f t="shared" si="3"/>
         <v>1351.9912999999999</v>
       </c>
       <c r="O72" s="15">
@@ -2329,19 +2323,19 @@
         <v>39</v>
       </c>
       <c r="K73" s="11">
-        <f>$K63*$O73/$O$66</f>
+        <f t="shared" si="0"/>
         <v>4.4520778643132974E-2</v>
       </c>
       <c r="L73" s="11">
-        <f>$K63*$O73/$O$67</f>
+        <f t="shared" si="1"/>
         <v>0.70187569439710995</v>
       </c>
       <c r="M73" s="11">
-        <f>$K63*$O73/$O$68</f>
+        <f t="shared" si="2"/>
         <v>3.6579816385435167</v>
       </c>
       <c r="N73" s="11">
-        <f>$K63*$O73</f>
+        <f t="shared" si="3"/>
         <v>1235.6661975</v>
       </c>
       <c r="O73" s="15">
@@ -2350,7 +2344,7 @@
       </c>
     </row>
     <row r="74" spans="10:15">
-      <c r="J74" s="17" t="s">
+      <c r="J74" s="16" t="s">
         <v>66</v>
       </c>
       <c r="K74" s="11">
@@ -2369,7 +2363,7 @@
         <f>SUM(N66:N73)</f>
         <v>40807.024438921915</v>
       </c>
-      <c r="O74" s="18" t="s">
+      <c r="O74" s="11" t="s">
         <v>20</v>
       </c>
     </row>
